--- a/outputs/ROME5.xlsx
+++ b/outputs/ROME5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with various files and information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy would make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather necessary information. The page is structured and contains various sections that might guide her on how to file an issue.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README.md file as a logical next step to gather more information. The page clearly lists the README.md file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed and specific guidance to feel confident that she is making progress toward her goal. The lack of explicit instructions would leave her uncertain about the next steps, affecting her confidence and making her feel she hasn't made progress.</t>
+Why: After reading the README.md file, Abi would expect to find clear and comprehensive information about how to file an issue. However, the provided page does not contain specific instructions or a direct link to file an issue. The information on the page is more about the project itself, technologies used, and contact points, but it lacks detailed steps or guidance on filing an issue. Given Abi's comprehensive information processing style, she would not feel confident that she has made progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear instructions.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file explicitly mentions the "Contribute.md" file as a resource for those who want to contribute and are unsure how to start. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" link is a logical next step to find detailed instructions on how to file an issue. The page provides clear guidance, making it suitable for Abi to take this action.</t>
+Why: The page explicitly mentions "Want to contribute but not sure how to start? Please read the Contribute.md." This provides a clear indication that the Contribute.md file contains relevant information for contributing to the project, which likely includes how to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize this as a logical next step to gather the necessary information. The page is clear and direct enough for Abi to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions on how to file an issue, including links to create a new issue on GitLab. This aligns well with Abi's comprehensive information processing style and preference for process-oriented learning. She will know she is making progress toward her goal and will have the necessary information to file an issue. The instructions are detailed and straightforward, making it easy for her to follow and complete the task.</t>
+Why: The Contribute.md file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's subgoal by providing the necessary steps to report a bug or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has made progress toward her goal and has found the information she needs. The instructions are straightforward and detailed, which aligns well with Abi's learning style and helps her feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file clearly outlines the steps for filing an issue, including a dedicated section titled "File an issue" with specific instructions and links. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions provide her with the confidence and clarity needed to proceed with filing the issue.</t>
+Why: The Contribute.md file contains a specific section titled "File an issue," which directly addresses Abi's subgoal of finding information about how to file an issue. This section provides clear instructions on how to report a bug or request a feature, which aligns with Abi's motivations to accomplish her task efficiently. Given her comprehensive information processing style, Abi would recognize that following these instructions is a necessary step toward achieving her overall use case of filing an issue to have a merge request template.</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that going to the list of issues is the next logical step. The page provides clear guidance, making it suitable for Abi to take this action confidently.</t>
+Why: The Contribute.md file provides clear instructions on how to file an issue, including a step to go to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that navigating to the list of issues is a necessary step in the process of filing an issue. The instructions are straightforward and detailed, making it clear what Abi needs to do next, which aligns well with her learning style and helps her feel confident in taking this action.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is on the right page to view the list of issues, the page does not provide explicit instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear and detailed guidance to feel confident she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit instructions. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without further guidance.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon reaching the list of issues, Abi will see a clear and familiar interface for managing issues, including a prominent "New issue" button. This aligns with her comprehensive information processing style, as she can see the existing issues and understand that she is in the right place to file a new one. The interface is straightforward and provides a clear next step, which matches her preference for process-oriented learning. Therefore, Abi will know that she is making progress toward her goal and has the necessary information to proceed with filing the issue.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking the "New issue" button is the next logical step to file an issue. The page provides a straightforward and intuitive action, making it suitable for Abi to take this step confidently.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style, she will recognize that clicking this button is the logical next action to take in order to file an issue. The interface is straightforward and provides a clear call to action, which aligns well with her preference for process-oriented learning. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi lands on a straightforward form to create a new issue. The form is clearly labeled with fields for the title, type, and description, and there are buttons to create or cancel the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue. The form provides all the necessary fields to input the required information, making it clear that she is making progress toward her goal.</t>
+Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard components for filing an issue. Given Abi's comprehensive information processing style, she will recognize that she is in the right place to provide the necessary details for filing the issue. The interface is clear and provides all the required fields, aligning with her preference for process-oriented learning. Therefore, Abi will know that she is making progress toward her goal and has the necessary information to complete the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form on the "New Issue" page is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" and "Cancel" buttons are also clearly visible. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out the form and submit it to file the issue. The page provides all the necessary fields and options, making it clear and easy for her to take this action confidently.</t>
+Why: The form for creating a new issue is straightforward and includes clear fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields with the relevant information about the merge request template issue. The interface is user-friendly and provides a clear "Create issue" button, which aligns with her preference for process-oriented learning. Therefore, Abi will know what to do at this step and will feel confident in taking this action to file the issue.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. The page also provides options to edit the issue, add comments, and manage related items, which aligns with her comprehensive information processing style. The confirmation and visibility of the issue details will reassure Abi that she has done the right thing and is making progress toward her goal. The page provides all the necessary information and options, making it clear that she has successfully filed the issue.</t>
+Why: After submitting the issue, Abi is taken to a confirmation page that shows the details of the newly created issue. The page clearly indicates that the issue has been created, with a status of "Open" and the details she provided. This immediate feedback aligns with Abi's comprehensive information processing style, as she can see that her action was successful and that she is making progress toward her goal. The interface is clear and provides all the necessary information, which aligns with her preference for process-oriented learning. Therefore, Abi will know that she did the right thing and has successfully filed the issue.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME5.xlsx
+++ b/outputs/ROME5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view with files and some information about the project, but it does not provide any direct information or guidance on how to file an issue. ABI, who prefers comprehensive information and step-by-step guidance, would not find the necessary information here to understand how to file an issue. Additionally, due to ABI's low computer self-efficacy, they might feel uncertain about where to find the relevant information on this page. Therefore, ABI would not consider this a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README.md file as a logical next step to gather more information. The page clearly lists the README.md file, making it accessible for Abi to take this action.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and step-by-step guidance, would likely consider reading the README as a logical step to gather necessary information. The page clearly lists the README.md file, making it accessible for ABI to click and read. This aligns with ABI's information processing style and learning style, as they would expect to find detailed instructions or links to further resources within the README.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README.md file, Abi would expect to find clear and comprehensive information about how to file an issue. However, the provided page does not contain specific instructions or a direct link to file an issue. The information on the page is more about the project itself, technologies used, and contact points, but it lacks detailed steps or guidance on filing an issue. Given Abi's comprehensive information processing style, she would not feel confident that she has made progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear instructions.</t>
+Why: After reading the README, ABI will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. ABI, who prefers comprehensive information and step-by-step guidance, will not feel confident that they are making progress toward their goal. Additionally, due to ABI's low computer self-efficacy, they might feel uncertain about what to do next without clear instructions. Therefore, ABI will not know that they did the right thing and will not have all the information they need.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions "Want to contribute but not sure how to start? Please read the Contribute.md." This provides a clear indication that the Contribute.md file contains relevant information for contributing to the project, which likely includes how to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize this as a logical next step to gather the necessary information. The page is clear and direct enough for Abi to take this action confidently.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. This aligns with ABI's comprehensive information processing style and preference for step-by-step guidance. ABI will recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to contribute, which likely includes filing an issue. The clear labeling and context provided on the page make it straightforward for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's subgoal by providing the necessary steps to report a bug or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has made progress toward her goal and has found the information she needs. The instructions are straightforward and detailed, which aligns well with Abi's learning style and helps her feel confident that she is on the right track.</t>
+Why: The "Contribute.md" file provides a clear section titled "File an issue," which directly addresses ABI's subgoal of finding information about how to file an issue. The instructions are straightforward and provide the necessary steps to create a new issue in the GitLab project. This aligns with ABI's preference for comprehensive information and step-by-step guidance. By following these instructions, ABI will know that they are making progress toward their goal and will have all the information they need to file an issue.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Contribute.md file contains a specific section titled "File an issue," which directly addresses Abi's subgoal of finding information about how to file an issue. This section provides clear instructions on how to report a bug or request a feature, which aligns with Abi's motivations to accomplish her task efficiently. Given her comprehensive information processing style, Abi would recognize that following these instructions is a necessary step toward achieving her overall use case of filing an issue to have a merge request template.</t>
+Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. This directly aligns with ABI's subgoal of filing an issue. Given ABI's motivation to accomplish their tasks and their preference for comprehensive information, they will recognize that following these instructions is a necessary step toward achieving the overall use case. The detailed guidance provided in the "Contribute.md" file will help ABI feel confident that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear instructions on how to file an issue, including a step to go to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that navigating to the list of issues is a necessary step in the process of filing an issue. The instructions are straightforward and detailed, making it clear what Abi needs to do next, which aligns well with her learning style and helps her feel confident in taking this action.</t>
+Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes the step to go to the list of issues. ABI, who prefers comprehensive information and step-by-step guidance, will understand that navigating to the list of issues is a necessary step in the process of filing an issue. The instructions are straightforward and provide the necessary context for ABI to know what to do next. This aligns with ABI's information processing style and learning style, making the page good enough for ABI to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon reaching the list of issues, Abi will see a clear and familiar interface for managing issues, including a prominent "New issue" button. This aligns with her comprehensive information processing style, as she can see the existing issues and understand that she is in the right place to file a new one. The interface is straightforward and provides a clear next step, which matches her preference for process-oriented learning. Therefore, Abi will know that she is making progress toward her goal and has the necessary information to proceed with filing the issue.</t>
+Why: Upon landing on the list of issues page, ABI will see a clear "New issue" button at the top right corner. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is on the right track. The presence of the "New issue" button provides a clear next step, making it evident that ABI is making progress toward their goal of filing an issue. The page is straightforward and provides the necessary information for ABI to continue with the process, aligning with their preference for comprehensive information and step-by-step guidance.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style, she will recognize that clicking this button is the logical next action to take in order to file an issue. The interface is straightforward and provides a clear call to action, which aligns well with her preference for process-oriented learning. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
+Why: The "New issue" button is prominently displayed at the top right corner of the issues list page, making it easy for ABI to identify the next step. The instructions in the "Contribute.md" file have already guided ABI to this point, and the clear labeling of the button aligns with ABI's preference for comprehensive information and step-by-step guidance. The page is straightforward and provides a clear call to action, making it easy for ABI to know what to do next and feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard components for filing an issue. Given Abi's comprehensive information processing style, she will recognize that she is in the right place to provide the necessary details for filing the issue. The interface is clear and provides all the required fields, aligning with her preference for process-oriented learning. Therefore, Abi will know that she is making progress toward her goal and has the necessary information to complete the task.</t>
+Why: After clicking "New issue," ABI lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This clear and simple layout aligns with ABI's preference for comprehensive information and step-by-step guidance. The presence of the "Create issue" button at the bottom of the form further confirms that ABI is on the right track and making progress toward their goal. The page provides all the necessary information and fields for ABI to complete the task, ensuring they know they did the right thing and have all the information they need.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and includes clear fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields with the relevant information about the merge request template issue. The interface is user-friendly and provides a clear "Create issue" button, which aligns with her preference for process-oriented learning. Therefore, Abi will know what to do at this step and will feel confident in taking this action to file the issue.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and step-by-step guidance, will find this layout intuitive and easy to follow. The "Create issue" button at the bottom of the form provides a clear call to action, making it evident what ABI needs to do next. The page provides all the necessary information and fields for ABI to complete the task, ensuring they know what to do at this step and feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi is taken to a confirmation page that shows the details of the newly created issue. The page clearly indicates that the issue has been created, with a status of "Open" and the details she provided. This immediate feedback aligns with Abi's comprehensive information processing style, as she can see that her action was successful and that she is making progress toward her goal. The interface is clear and provides all the necessary information, which aligns with her preference for process-oriented learning. Therefore, Abi will know that she did the right thing and has successfully filed the issue.</t>
+Why: After submitting the issue, ABI lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the issue details displayed. This immediate feedback confirms to ABI that they have successfully filed the issue and are making progress toward their goal. The page provides all the necessary information, including the issue title, description, and activity section, ensuring ABI knows they did the right thing and have all the information they need. This aligns with ABI's preference for comprehensive information and step-by-step guidance, reinforcing their confidence in completing the task.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME5.xlsx
+++ b/outputs/ROME5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some information about the project, but it does not provide any direct information or guidance on how to file an issue. ABI, who prefers comprehensive information and step-by-step guidance, would not find the necessary information here to understand how to file an issue. Additionally, due to ABI's low computer self-efficacy, they might feel uncertain about where to find the relevant information on this page. Therefore, ABI would not consider this a step toward achieving the overall use case.</t>
+Why: The page shown is a repository view with files and directories listed, along with some general information about the project. There is no explicit information or guidance on how to file an issue. Given Abi's preference for comprehensive information and step-by-step guidance, she is unlikely to consider this page as a step toward finding information about how to file an issue. Additionally, Abi's low computer self-efficacy means she might struggle to figure out the next steps without clear instructions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and step-by-step guidance, would likely consider reading the README as a logical step to gather necessary information. The page clearly lists the README.md file, making it accessible for ABI to click and read. This aligns with ABI's information processing style and learning style, as they would expect to find detailed instructions or links to further resources within the README.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for step-by-step guidance, she is likely to read the README file to gather necessary information. The README section on this page includes a "Contribute" section, which might provide the information she needs about filing an issue. Therefore, Abi will know to read the README at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, ABI will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. ABI, who prefers comprehensive information and step-by-step guidance, will not feel confident that they are making progress toward their goal. Additionally, due to ABI's low computer self-efficacy, they might feel uncertain about what to do next without clear instructions. Therefore, ABI will not know that they did the right thing and will not have all the information they need.</t>
+Why: While the README file does contain a "Contribute" section, it does not provide specific instructions on how to file an issue. The information is more general and does not directly address the subgoal of filing an issue. Given Abi's need for comprehensive information and clear guidance, she is unlikely to feel confident that she has made progress toward her goal after reading this README. The lack of specific instructions will likely leave her uncertain about the next steps, affecting her computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. This aligns with ABI's comprehensive information processing style and preference for step-by-step guidance. ABI will recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to contribute, which likely includes filing an issue. The clear labeling and context provided on the page make it straightforward for ABI to know what to do at this step.</t>
+Why: The "contribute.md" file is likely to contain specific information about how to contribute to the project, which often includes instructions on how to file issues. Given Abi's comprehensive information processing style and preference for step-by-step guidance, she will recognize that clicking on the "contribute.md" file is a logical next step to find detailed instructions. The page is good enough for Abi to take this action because it clearly lists the "contribute.md" file, indicating that it contains relevant information.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides a clear section titled "File an issue," which directly addresses ABI's subgoal of finding information about how to file an issue. The instructions are straightforward and provide the necessary steps to create a new issue in the GitLab project. This aligns with ABI's preference for comprehensive information and step-by-step guidance. By following these instructions, ABI will know that they are making progress toward their goal and will have all the information they need to file an issue.</t>
+Why: The "contribute.md" file provides a clear section titled "File an issue," which directly addresses Abi's subgoal. It includes specific instructions on how to file an issue, such as creating a "New Issue" in the GitLab app and providing as much detail as possible. This aligns well with Abi's need for comprehensive information and step-by-step guidance. Therefore, Abi will know that she did the right thing and is making progress toward her goal, as she will get all the information she needs from this document.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. This directly aligns with ABI's subgoal of filing an issue. Given ABI's motivation to accomplish their tasks and their preference for comprehensive information, they will recognize that following these instructions is a necessary step toward achieving the overall use case. The detailed guidance provided in the "Contribute.md" file will help ABI feel confident that they are making progress toward their goal.</t>
+Why: The "contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The detailed steps and specific guidance will help Abi understand that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. Therefore, she will recognize this as a step toward her use case.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes the step to go to the list of issues. ABI, who prefers comprehensive information and step-by-step guidance, will understand that navigating to the list of issues is a necessary step in the process of filing an issue. The instructions are straightforward and provide the necessary context for ABI to know what to do next. This aligns with ABI's information processing style and learning style, making the page good enough for ABI to take this action confidently.</t>
+Why: The "contribute.md" file provides clear instructions under the "File an issue" section, which includes the step to go to the list of issues. Given Abi's comprehensive information processing style and preference for step-by-step guidance, she will understand that going to the list of issues is the next logical step in the process of filing an issue. The page is good enough for Abi to take this action because it explicitly mentions this step, making it clear and straightforward for her to follow.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon landing on the list of issues page, ABI will see a clear "New issue" button at the top right corner. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is on the right track. The presence of the "New issue" button provides a clear next step, making it evident that ABI is making progress toward their goal of filing an issue. The page is straightforward and provides the necessary information for ABI to continue with the process, aligning with their preference for comprehensive information and step-by-step guidance.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon landing on the list of issues page, Abi will see a clear "New issue" button at the top right corner of the page. This aligns with the instructions provided in the "contribute.md" file, confirming that she is on the right track. The presence of the "New issue" button and the list of existing issues will indicate to Abi that she is making progress toward her goal of filing an issue. The page provides a straightforward and intuitive interface, making it clear what the next step should be.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed at the top right corner of the issues list page, making it easy for ABI to identify the next step. The instructions in the "Contribute.md" file have already guided ABI to this point, and the clear labeling of the button aligns with ABI's preference for comprehensive information and step-by-step guidance. The page is straightforward and provides a clear call to action, making it easy for ABI to know what to do next and feel confident in taking this action.</t>
+Why: The "New issue" button is prominently displayed at the top right corner of the page, making it easy for Abi to identify the next step. Given her comprehensive information processing style and preference for clear, step-by-step instructions, she will recognize that clicking this button is the appropriate action to take in order to file an issue. The page is straightforward and provides a clear call to action, which aligns with Abi's need for explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," ABI lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This clear and simple layout aligns with ABI's preference for comprehensive information and step-by-step guidance. The presence of the "Create issue" button at the bottom of the form further confirms that ABI is on the right track and making progress toward their goal. The page provides all the necessary information and fields for ABI to complete the task, ensuring they know they did the right thing and have all the information they need.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "New issue," Abi will land on a page with a clear and straightforward form to create a new issue. The form includes fields for the title, type, and description, which are standard components for filing an issue. This aligns with the instructions provided in the "contribute.md" file, confirming that she is on the right track. The presence of the "Create issue" button further indicates that she is making progress toward her goal. The page provides all the necessary fields and options to file an issue, making it clear that she is taking the correct steps.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and step-by-step guidance, will find this layout intuitive and easy to follow. The "Create issue" button at the bottom of the form provides a clear call to action, making it evident what ABI needs to do next. The page provides all the necessary information and fields for ABI to complete the task, ensuring they know what to do at this step and feel confident in taking this action.</t>
+Why: The form on the "New Issue" page is straightforward and clearly labeled, with fields for the title, type, and description of the issue. Given Abi's comprehensive information processing style and preference for step-by-step guidance, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button at the bottom of the form provides a clear call to action, making it evident that this is the final step to submit the issue. The page is well-designed and provides all the necessary information for Abi to complete the task confidently.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, ABI lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the issue details displayed. This immediate feedback confirms to ABI that they have successfully filed the issue and are making progress toward their goal. The page provides all the necessary information, including the issue title, description, and activity section, ensuring ABI knows they did the right thing and have all the information they need. This aligns with ABI's preference for comprehensive information and step-by-step guidance, reinforcing their confidence in completing the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After submitting the issue, Abi will land on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will let her know that she did the right thing and is making progress toward her goal. The page also provides options for further actions, such as adding comments or closing the issue, which aligns with her comprehensive information processing style. The confirmation and additional options will reassure Abi that she has successfully filed the issue and has all the information she needs.</t>
         </is>
       </c>
     </row>
